--- a/xlsx/AdBlue_intext.xlsx
+++ b/xlsx/AdBlue_intext.xlsx
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E6%B0%A3</t>
   </si>
   <si>
-    <t>廢氣</t>
-  </si>
-  <si>
-    <t>政策_政策_混合動力車輛_AdBlue</t>
+    <t>废气</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_AdBlue</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BF%E7%B4%A0</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E6%B1%BD%E8%BB%8A%E5%B7%A5%E6%A5%AD%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>德國汽車工業協會</t>
+    <t>德国汽车工业协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A8</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%84%E5%8E%9F</t>
   </si>
   <si>
-    <t>還原</t>
+    <t>还原</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%AE</t>
@@ -83,43 +83,43 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A8%99%E7%B7%BB</t>
   </si>
   <si>
-    <t>標緻</t>
+    <t>标致</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>大眾汽車</t>
+    <t>大众汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>現代汽車</t>
+    <t>现代汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>福特汽車</t>
+    <t>福特汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E7%94%A2</t>
   </si>
   <si>
-    <t>日產</t>
+    <t>日产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%90%E7%94%B0</t>
   </si>
   <si>
-    <t>豐田</t>
+    <t>丰田</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%8D%81%E9%88%B4</t>
   </si>
   <si>
-    <t>五十鈴</t>
+    <t>五十铃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A0%AA%E5%B0%BC%E4%BA%9A</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%AB%BE</t>
   </si>
   <si>
-    <t>雷諾</t>
+    <t>雷诺</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9B%E7%8D%85</t>
   </si>
   <si>
-    <t>猛獅</t>
+    <t>猛狮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E9%87%8E</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E4%B8%B9%E5%B0%BC%E5%A3%ABEnviro_500</t>
   </si>
   <si>
-    <t>亞歷山大丹尼士Enviro 500</t>
+    <t>亚历山大丹尼士Enviro 500</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%B1%AAB9TL</t>
@@ -161,19 +161,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E4%B8%B9%E5%B0%BC%E5%A3%ABEnviro_400</t>
   </si>
   <si>
-    <t>亞歷山大丹尼士Enviro 400</t>
+    <t>亚历山大丹尼士Enviro 400</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E4%B8%B9%E5%B0%BC%E5%A3%ABEnviro_200_Dart</t>
   </si>
   <si>
-    <t>亞歷山大丹尼士Enviro 200 Dart</t>
+    <t>亚历山大丹尼士Enviro 200 Dart</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E4%B8%B9%E5%B0%BC%E5%A3%ABEnviro_500MMC</t>
   </si>
   <si>
-    <t>亞歷山大丹尼士Enviro 500MMC</t>
+    <t>亚历山大丹尼士Enviro 500MMC</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%B1%AAB7RLE</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%B1%AA%E5%A5%A7%E6%9E%97%E6%AF%94%E5%AE%89</t>
   </si>
   <si>
-    <t>富豪奧林比安</t>
+    <t>富豪奥林比安</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%A3%AB%E4%B8%89%E5%8F%89%E6%88%9F%E4%B8%89%E5%9E%8B</t>
